--- a/Таблицы/Trade.xlsx
+++ b/Таблицы/Trade.xlsx
@@ -9,11 +9,15 @@
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
     <sheet name="Product" sheetId="7" r:id="rId2"/>
-    <sheet name="OrderProduct" sheetId="2" r:id="rId3"/>
-    <sheet name="User" sheetId="3" r:id="rId4"/>
-    <sheet name="UserRole" sheetId="4" r:id="rId5"/>
-    <sheet name="OrderStatus" sheetId="5" r:id="rId6"/>
-    <sheet name="PickPoint" sheetId="6" r:id="rId7"/>
+    <sheet name="ProductCategory" sheetId="11" r:id="rId3"/>
+    <sheet name="ProductSupplier" sheetId="10" r:id="rId4"/>
+    <sheet name="ProductManufacturer" sheetId="9" r:id="rId5"/>
+    <sheet name="ProductName" sheetId="8" r:id="rId6"/>
+    <sheet name="OrderProduct" sheetId="2" r:id="rId7"/>
+    <sheet name="User" sheetId="3" r:id="rId8"/>
+    <sheet name="UserRole" sheetId="4" r:id="rId9"/>
+    <sheet name="OrderStatus" sheetId="5" r:id="rId10"/>
+    <sheet name="PickPoint" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="223">
   <si>
     <t>Роль сотрудника</t>
   </si>
@@ -454,9 +458,6 @@
     <t>Единица измерения</t>
   </si>
   <si>
-    <t>Стоимость</t>
-  </si>
-  <si>
     <t>Размер максимально возможной скидки</t>
   </si>
   <si>
@@ -478,9 +479,6 @@
     <t>Описание</t>
   </si>
   <si>
-    <t>Изображение</t>
-  </si>
-  <si>
     <t>Лакомство</t>
   </si>
   <si>
@@ -680,6 +678,27 @@
   </si>
   <si>
     <t>Сухой корм для щенков DOG CHOW Puppy, ягненок 2.5 кг</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>SupplierID</t>
+  </si>
+  <si>
+    <t>ManufacturerID</t>
+  </si>
+  <si>
+    <t>ProductNameID</t>
+  </si>
+  <si>
+    <t>CategoryID</t>
+  </si>
+  <si>
+    <t>ProductImage</t>
+  </si>
+  <si>
+    <t>ProductPhoto</t>
   </si>
 </sst>
 </file>
@@ -1668,1203 +1687,1760 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="63">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="63">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="P1" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="63">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="6">
+        <f>LOOKUP(D2,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="63">
-      <c r="A2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="F2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="6">
+        <v>30</v>
+      </c>
+      <c r="H2" s="6">
+        <f>LOOKUP(I2,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>4</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="J2" s="6">
+        <f>LOOKUP(K2,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="6">
-        <v>123</v>
-      </c>
-      <c r="E2" s="6">
-        <v>30</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="L2" s="6">
+        <f>LOOKUP(M2,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="N2" s="6">
+        <v>3</v>
+      </c>
+      <c r="O2" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="6">
-        <v>3</v>
-      </c>
-      <c r="J2" s="6">
-        <v>6</v>
-      </c>
-      <c r="K2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:17" ht="63">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="6">
+        <f>LOOKUP(D3,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="E3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="6">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6">
+        <f>LOOKUP(I3,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>12</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="63">
-      <c r="A3" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="J3" s="6">
+        <f>LOOKUP(K3,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="L3" s="6">
+        <f>LOOKUP(M3,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" s="6">
+        <v>2</v>
+      </c>
+      <c r="O3" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="78.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="6">
+        <f>LOOKUP(D4,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="6">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6">
+        <f>LOOKUP(I4,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="6">
+        <f>LOOKUP(K4,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="6">
+        <f>LOOKUP(M4,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N4" s="6">
+        <v>3</v>
+      </c>
+      <c r="O4" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="94.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="6">
+        <f>LOOKUP(D5,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="6">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" s="6">
-        <v>2</v>
-      </c>
-      <c r="J3" s="6">
-        <v>7</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="94.5">
-      <c r="A4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E4" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" s="6">
-        <v>3</v>
-      </c>
-      <c r="J4" s="6">
-        <v>15</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="94.5">
-      <c r="A5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="6">
-        <v>86</v>
-      </c>
-      <c r="E5" s="6">
-        <v>5</v>
+      <c r="E5" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="6">
+        <v>5</v>
+      </c>
+      <c r="H5" s="6">
+        <f>LOOKUP(I5,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="6">
+        <f>LOOKUP(K5,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="6">
+        <f>LOOKUP(M5,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N5" s="6">
+        <v>4</v>
+      </c>
+      <c r="O5" s="6">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="6">
+    </row>
+    <row r="6" spans="1:17" ht="94.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="6">
+        <f>LOOKUP(D6,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="6">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6">
+        <f>LOOKUP(I6,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="6">
+        <f>LOOKUP(K6,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L6" s="6">
+        <f>LOOKUP(M6,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N6" s="6">
+        <v>5</v>
+      </c>
+      <c r="O6" s="6">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="94.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="6">
+        <f>LOOKUP(D7,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="6">
+        <v>25</v>
+      </c>
+      <c r="H7" s="6">
+        <f>LOOKUP(I7,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" s="6">
+        <f>LOOKUP(K7,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L7" s="6">
+        <f>LOOKUP(M7,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N7" s="6">
+        <v>2</v>
+      </c>
+      <c r="O7" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="63">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="6">
+        <f>LOOKUP(D8,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
         <v>4</v>
       </c>
-      <c r="J5" s="6">
+      <c r="D8" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6">
+        <f>LOOKUP(I8,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>6</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" s="6">
+        <f>LOOKUP(K8,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L8" s="6">
+        <f>LOOKUP(M8,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N8" s="6">
+        <v>3</v>
+      </c>
+      <c r="O8" s="6">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="78.75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="6" t="e">
+        <f>LOOKUP(D9,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5</v>
+      </c>
+      <c r="H9" s="6">
+        <f>LOOKUP(I9,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>5</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9" s="6">
+        <f>LOOKUP(K9,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L9" s="6">
+        <f>LOOKUP(M9,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9" s="6">
+        <v>5</v>
+      </c>
+      <c r="O9" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="63">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="6">
+        <f>LOOKUP(D10,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="6">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6">
+        <f>LOOKUP(I10,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>7</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J10" s="6">
+        <f>LOOKUP(K10,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L10" s="6">
+        <f>LOOKUP(M10,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N10" s="6">
+        <v>3</v>
+      </c>
+      <c r="O10" s="6">
         <v>17</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="94.5">
-      <c r="A6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="Q10" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="78.75">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="6">
+        <f>LOOKUP(D11,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6">
+        <f>LOOKUP(I11,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J11" s="6">
+        <f>LOOKUP(K11,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" s="6">
+        <f>LOOKUP(M11,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N11" s="6">
+        <v>5</v>
+      </c>
+      <c r="O11" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="63">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="6" t="e">
+        <f>LOOKUP(D12,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="6">
+        <v>10</v>
+      </c>
+      <c r="H12" s="6">
+        <f>LOOKUP(I12,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" s="6">
+        <f>LOOKUP(K12,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="6">
+      <c r="L12" s="6">
+        <f>LOOKUP(M12,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N12" s="6">
+        <v>5</v>
+      </c>
+      <c r="O12" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="78.75">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="6" t="e">
+        <f>LOOKUP(D13,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="6">
+        <v>15</v>
+      </c>
+      <c r="H13" s="6">
+        <f>LOOKUP(I13,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J13" s="6">
+        <f>LOOKUP(K13,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" s="6">
+        <f>LOOKUP(M13,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N13" s="6">
+        <v>2</v>
+      </c>
+      <c r="O13" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="110.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="6">
+        <f>LOOKUP(D14,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="6">
+        <v>30</v>
+      </c>
+      <c r="H14" s="6">
+        <f>LOOKUP(I14,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J14" s="6">
+        <f>LOOKUP(K14,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="6">
+        <f>LOOKUP(M14,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N14" s="6">
+        <v>4</v>
+      </c>
+      <c r="O14" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="78.75">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="6">
+        <f>LOOKUP(D15,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="6">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6">
+        <f>LOOKUP(I15,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J15" s="6">
+        <f>LOOKUP(K15,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" s="6">
+        <f>LOOKUP(M15,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N15" s="6">
+        <v>2</v>
+      </c>
+      <c r="O15" s="6">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="47.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="6">
+        <f>LOOKUP(D16,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="6">
+        <v>15</v>
+      </c>
+      <c r="H16" s="6">
+        <f>LOOKUP(I16,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J16" s="6">
+        <f>LOOKUP(K16,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" s="6">
+        <f>LOOKUP(M16,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N16" s="6">
+        <v>3</v>
+      </c>
+      <c r="O16" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="78.75">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="6">
+        <f>LOOKUP(D17,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="6">
+        <v>25</v>
+      </c>
+      <c r="H17" s="6">
+        <f>LOOKUP(I17,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>2</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" s="6">
+        <f>LOOKUP(K17,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" s="6">
+        <f>LOOKUP(M17,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N17" s="6">
+        <v>4</v>
+      </c>
+      <c r="O17" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="63">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="6" t="e">
+        <f>LOOKUP(D18,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5</v>
+      </c>
+      <c r="H18" s="6">
+        <f>LOOKUP(I18,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" s="6">
+        <f>LOOKUP(K18,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="6">
+        <f>LOOKUP(M18,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N18" s="6">
+        <v>2</v>
+      </c>
+      <c r="O18" s="6">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="63">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="6" t="e">
+        <f>LOOKUP(D19,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="6">
+        <v>5</v>
+      </c>
+      <c r="H19" s="6">
+        <f>LOOKUP(I19,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" s="6">
+        <f>LOOKUP(K19,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" s="6">
+        <f>LOOKUP(M19,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N19" s="6">
+        <v>2</v>
+      </c>
+      <c r="O19" s="6">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="110.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="6">
+        <f>LOOKUP(D20,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" s="6">
+        <v>30</v>
+      </c>
+      <c r="H20" s="6">
+        <f>LOOKUP(I20,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>8</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="6">
+        <f>LOOKUP(K20,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L20" s="6">
+        <f>LOOKUP(M20,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N20" s="6">
+        <v>4</v>
+      </c>
+      <c r="O20" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="78.75">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="6">
+        <f>LOOKUP(D21,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" s="6">
+        <v>15</v>
+      </c>
+      <c r="H21" s="6">
+        <f>LOOKUP(I21,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" s="6">
+        <f>LOOKUP(K21,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" s="6">
+        <f>LOOKUP(M21,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N21" s="6">
+        <v>3</v>
+      </c>
+      <c r="O21" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="94.5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="6">
+        <f>LOOKUP(D22,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>4</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" s="6">
+        <v>5</v>
+      </c>
+      <c r="H22" s="6">
+        <f>LOOKUP(I22,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" s="6">
+        <f>LOOKUP(K22,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" s="6">
+        <f>LOOKUP(M22,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N22" s="6">
+        <v>4</v>
+      </c>
+      <c r="O22" s="6">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="63">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="6" t="e">
+        <f>LOOKUP(D23,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" s="6">
+        <v>5</v>
+      </c>
+      <c r="H23" s="6">
+        <f>LOOKUP(I23,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" s="6">
+        <f>LOOKUP(K23,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L23" s="6">
+        <f>LOOKUP(M23,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N23" s="6">
+        <v>5</v>
+      </c>
+      <c r="O23" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="78.75">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="6">
+        <f>LOOKUP(D24,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="6">
+        <v>25</v>
+      </c>
+      <c r="H24" s="6">
+        <f>LOOKUP(I24,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>13</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" s="6">
+        <f>LOOKUP(K24,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L24" s="6">
+        <f>LOOKUP(M24,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N24" s="6">
+        <v>2</v>
+      </c>
+      <c r="O24" s="6">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="78.75">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="6" t="e">
+        <f>LOOKUP(D25,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="6">
+        <v>30</v>
+      </c>
+      <c r="H25" s="6">
+        <f>LOOKUP(I25,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" s="6">
+        <f>LOOKUP(K25,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L25" s="6">
+        <f>LOOKUP(M25,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N25" s="6">
+        <v>5</v>
+      </c>
+      <c r="O25" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="63">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="6">
+        <f>LOOKUP(D26,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="6">
+        <v>15</v>
+      </c>
+      <c r="H26" s="6">
+        <f>LOOKUP(I26,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" s="6">
+        <f>LOOKUP(K26,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="6">
+        <f>LOOKUP(M26,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N26" s="6">
+        <v>4</v>
+      </c>
+      <c r="O26" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="78.75">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="6">
+        <f>LOOKUP(D27,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" s="6">
+        <v>25</v>
+      </c>
+      <c r="H27" s="6">
+        <f>LOOKUP(I27,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" s="6">
+        <f>LOOKUP(K27,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L27" s="6">
+        <f>LOOKUP(M27,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N27" s="6">
+        <v>3</v>
+      </c>
+      <c r="O27" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="94.5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="6">
+        <f>LOOKUP(D28,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>4</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="6">
+        <v>15</v>
+      </c>
+      <c r="H28" s="6">
+        <f>LOOKUP(I28,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>11</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" s="6">
+        <f>LOOKUP(K28,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L28" s="6">
+        <f>LOOKUP(M28,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N28" s="6">
+        <v>2</v>
+      </c>
+      <c r="O28" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="94.5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="6">
+        <f>LOOKUP(D29,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" s="6">
+        <v>20</v>
+      </c>
+      <c r="H29" s="6">
+        <f>LOOKUP(I29,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="6">
+      <c r="J29" s="6">
+        <f>LOOKUP(K29,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L29" s="6">
+        <f>LOOKUP(M29,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N29" s="6">
+        <v>3</v>
+      </c>
+      <c r="O29" s="6">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="78.75">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="6">
+        <f>LOOKUP(D30,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" s="6">
+        <v>5</v>
+      </c>
+      <c r="H30" s="6">
+        <f>LOOKUP(I30,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J30" s="6">
+        <f>LOOKUP(K30,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L30" s="6">
+        <f>LOOKUP(M30,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N30" s="6">
+        <v>4</v>
+      </c>
+      <c r="O30" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="63">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="6">
+        <f>LOOKUP(D31,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" s="6">
         <v>15</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="H31" s="6">
+        <f>LOOKUP(I31,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>3</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="J31" s="6">
+        <f>LOOKUP(K31,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L31" s="6">
+        <f>LOOKUP(M31,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N31" s="6">
         <v>5</v>
       </c>
-      <c r="J6" s="6">
-        <v>18</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="94.5">
-      <c r="A7" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1700</v>
-      </c>
-      <c r="E7" s="6">
-        <v>25</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I7" s="6">
-        <v>2</v>
-      </c>
-      <c r="J7" s="6">
-        <v>5</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="78.75">
-      <c r="A8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="6">
-        <v>300</v>
-      </c>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I8" s="6">
-        <v>3</v>
-      </c>
-      <c r="J8" s="6">
-        <v>19</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="78.75">
-      <c r="A9" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="6">
-        <v>199</v>
-      </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="I9" s="6">
-        <v>5</v>
-      </c>
-      <c r="J9" s="6">
-        <v>7</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="78.75">
-      <c r="A10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="6">
-        <v>234</v>
-      </c>
-      <c r="E10" s="6">
-        <v>10</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I10" s="6">
-        <v>3</v>
-      </c>
-      <c r="J10" s="6">
-        <v>17</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="78.75">
-      <c r="A11" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="6">
-        <v>170</v>
-      </c>
-      <c r="E11" s="6">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I11" s="6">
-        <v>5</v>
-      </c>
-      <c r="J11" s="6">
-        <v>5</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="63">
-      <c r="A12" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="6">
-        <v>600</v>
-      </c>
-      <c r="E12" s="6">
-        <v>10</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I12" s="6">
-        <v>5</v>
-      </c>
-      <c r="J12" s="6">
-        <v>5</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="78.75">
-      <c r="A13" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="6">
-        <v>300</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="O31" s="6">
         <v>15</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I13" s="6">
-        <v>2</v>
-      </c>
-      <c r="J13" s="6">
-        <v>15</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="110.25">
-      <c r="A14" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="6">
-        <v>4100</v>
-      </c>
-      <c r="E14" s="6">
-        <v>30</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="I14" s="6">
-        <v>4</v>
-      </c>
-      <c r="J14" s="6">
-        <v>9</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="141.75">
-      <c r="A15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="6">
-        <v>385</v>
-      </c>
-      <c r="E15" s="6">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I15" s="6">
-        <v>2</v>
-      </c>
-      <c r="J15" s="6">
-        <v>17</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="47.25">
-      <c r="A16" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="6">
-        <v>280</v>
-      </c>
-      <c r="E16" s="6">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="I16" s="6">
-        <v>3</v>
-      </c>
-      <c r="J16" s="6">
-        <v>8</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="78.75">
-      <c r="A17" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1700</v>
-      </c>
-      <c r="E17" s="6">
-        <v>25</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I17" s="6">
-        <v>4</v>
-      </c>
-      <c r="J17" s="6">
-        <v>9</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="63">
-      <c r="A18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="6">
-        <v>510</v>
-      </c>
-      <c r="E18" s="6">
-        <v>5</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I18" s="6">
-        <v>2</v>
-      </c>
-      <c r="J18" s="6">
-        <v>17</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="63">
-      <c r="A19" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="6">
-        <v>510</v>
-      </c>
-      <c r="E19" s="6">
-        <v>5</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I19" s="6">
-        <v>2</v>
-      </c>
-      <c r="J19" s="6">
-        <v>17</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="110.25">
-      <c r="A20" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2190</v>
-      </c>
-      <c r="E20" s="6">
-        <v>30</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I20" s="6">
-        <v>4</v>
-      </c>
-      <c r="J20" s="6">
-        <v>7</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="78.75">
-      <c r="A21" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="6">
-        <v>177</v>
-      </c>
-      <c r="E21" s="6">
-        <v>15</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I21" s="6">
-        <v>3</v>
-      </c>
-      <c r="J21" s="6">
-        <v>15</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="94.5">
-      <c r="A22" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="6">
-        <v>100</v>
-      </c>
-      <c r="E22" s="6">
-        <v>5</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I22" s="6">
-        <v>4</v>
-      </c>
-      <c r="J22" s="6">
-        <v>21</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="63">
-      <c r="A23" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="6">
-        <v>640</v>
-      </c>
-      <c r="E23" s="6">
-        <v>5</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I23" s="6">
-        <v>5</v>
-      </c>
-      <c r="J23" s="6">
-        <v>4</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="78.75">
-      <c r="A24" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="6">
-        <v>800</v>
-      </c>
-      <c r="E24" s="6">
-        <v>25</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I24" s="6">
-        <v>2</v>
-      </c>
-      <c r="J24" s="6">
-        <v>17</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="78.75">
-      <c r="A25" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="6">
-        <v>3500</v>
-      </c>
-      <c r="E25" s="6">
-        <v>30</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I25" s="6">
-        <v>5</v>
-      </c>
-      <c r="J25" s="6">
-        <v>3</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="63">
-      <c r="A26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="6">
-        <v>400</v>
-      </c>
-      <c r="E26" s="6">
-        <v>15</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I26" s="6">
-        <v>4</v>
-      </c>
-      <c r="J26" s="6">
-        <v>5</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="78.75">
-      <c r="A27" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" s="6">
-        <v>292</v>
-      </c>
-      <c r="E27" s="6">
-        <v>25</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I27" s="6">
-        <v>3</v>
-      </c>
-      <c r="J27" s="6">
-        <v>13</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="94.5">
-      <c r="A28" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" s="6">
-        <v>600</v>
-      </c>
-      <c r="E28" s="6">
-        <v>15</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I28" s="6">
-        <v>2</v>
-      </c>
-      <c r="J28" s="6">
-        <v>16</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="94.5">
-      <c r="A29" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="6">
-        <v>140</v>
-      </c>
-      <c r="E29" s="6">
-        <v>20</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I29" s="6">
-        <v>3</v>
-      </c>
-      <c r="J29" s="6">
-        <v>19</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="78.75">
-      <c r="A30" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="6">
-        <v>50</v>
-      </c>
-      <c r="E30" s="6">
-        <v>5</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I30" s="6">
-        <v>4</v>
-      </c>
-      <c r="J30" s="6">
-        <v>6</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="78.75">
-      <c r="A31" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="6">
-        <v>600</v>
-      </c>
-      <c r="E31" s="6">
-        <v>15</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I31" s="6">
-        <v>5</v>
-      </c>
-      <c r="J31" s="6">
-        <v>15</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="L31" s="6" t="s">
+      <c r="Q31" s="6" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2874,6 +3450,324 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.5">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="33" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B4">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.5">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B14">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -3142,7 +4036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
@@ -3711,7 +4605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -3759,60 +4653,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Таблицы/Trade.xlsx
+++ b/Таблицы/Trade.xlsx
@@ -9,15 +9,17 @@
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
     <sheet name="Product" sheetId="7" r:id="rId2"/>
-    <sheet name="ProductCategory" sheetId="11" r:id="rId3"/>
-    <sheet name="ProductSupplier" sheetId="10" r:id="rId4"/>
-    <sheet name="ProductManufacturer" sheetId="9" r:id="rId5"/>
-    <sheet name="ProductName" sheetId="8" r:id="rId6"/>
-    <sheet name="OrderProduct" sheetId="2" r:id="rId7"/>
-    <sheet name="User" sheetId="3" r:id="rId8"/>
-    <sheet name="UserRole" sheetId="4" r:id="rId9"/>
-    <sheet name="OrderStatus" sheetId="5" r:id="rId10"/>
-    <sheet name="PickPoint" sheetId="6" r:id="rId11"/>
+    <sheet name="PickPoint" sheetId="6" r:id="rId3"/>
+    <sheet name="PickPointCity" sheetId="12" r:id="rId4"/>
+    <sheet name="PickPointStreet" sheetId="13" r:id="rId5"/>
+    <sheet name="ProductCategory" sheetId="11" r:id="rId6"/>
+    <sheet name="ProductSupplier" sheetId="10" r:id="rId7"/>
+    <sheet name="ProductManufacturer" sheetId="9" r:id="rId8"/>
+    <sheet name="ProductName" sheetId="8" r:id="rId9"/>
+    <sheet name="OrderProduct" sheetId="2" r:id="rId10"/>
+    <sheet name="User" sheetId="3" r:id="rId11"/>
+    <sheet name="UserRole" sheetId="4" r:id="rId12"/>
+    <sheet name="OrderStatus" sheetId="5" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="259">
   <si>
     <t>Роль сотрудника</t>
   </si>
@@ -699,13 +701,121 @@
   </si>
   <si>
     <t>ProductPhoto</t>
+  </si>
+  <si>
+    <t>г.Нефтеюганск</t>
+  </si>
+  <si>
+    <t>ул.Чехова</t>
+  </si>
+  <si>
+    <t>ул.Коммунистическая</t>
+  </si>
+  <si>
+    <t>ул.Солнечная</t>
+  </si>
+  <si>
+    <t>ул.Шоссейная</t>
+  </si>
+  <si>
+    <t>ул.Партизанская</t>
+  </si>
+  <si>
+    <t>ул.Победы</t>
+  </si>
+  <si>
+    <t>ул.Молодежная</t>
+  </si>
+  <si>
+    <t>ул.Новая</t>
+  </si>
+  <si>
+    <t>ул.Октябрьская</t>
+  </si>
+  <si>
+    <t>ул.Садовая</t>
+  </si>
+  <si>
+    <t>ул.Комсомольская</t>
+  </si>
+  <si>
+    <t>ул.Дзержинского</t>
+  </si>
+  <si>
+    <t>ул.Набережная</t>
+  </si>
+  <si>
+    <t>ул.Фрунзе</t>
+  </si>
+  <si>
+    <t>ул.Школьная</t>
+  </si>
+  <si>
+    <t>ул.Зеленая</t>
+  </si>
+  <si>
+    <t>ул.Маяковского</t>
+  </si>
+  <si>
+    <t>ул.Светлая</t>
+  </si>
+  <si>
+    <t>ул.Цветочная</t>
+  </si>
+  <si>
+    <t>ул.Спортивная</t>
+  </si>
+  <si>
+    <t>ул.Гоголя</t>
+  </si>
+  <si>
+    <t>ул.Северная</t>
+  </si>
+  <si>
+    <t>ул.Вишневая</t>
+  </si>
+  <si>
+    <t>ул.Подгорная</t>
+  </si>
+  <si>
+    <t>ул.Полевая</t>
+  </si>
+  <si>
+    <t>ул.Клубная</t>
+  </si>
+  <si>
+    <t>ул.Некрасова</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>HouseNumber</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>CityID</t>
+  </si>
+  <si>
+    <t>ул.8 Марта</t>
+  </si>
+  <si>
+    <t>ул.Степная</t>
+  </si>
+  <si>
+    <t>StreetID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,6 +850,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -784,7 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -814,6 +931,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1689,2086 +1808,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="63">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="63">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="6">
-        <f>LOOKUP(D2,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="6">
-        <v>30</v>
-      </c>
-      <c r="H2" s="6">
-        <f>LOOKUP(I2,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>4</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="J2" s="6">
-        <f>LOOKUP(K2,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L2" s="6">
-        <f>LOOKUP(M2,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="N2" s="6">
-        <v>3</v>
-      </c>
-      <c r="O2" s="6">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="63">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="6">
-        <f>LOOKUP(D3,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" s="6">
-        <v>15</v>
-      </c>
-      <c r="H3" s="6">
-        <f>LOOKUP(I3,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>12</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="J3" s="6">
-        <f>LOOKUP(K3,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L3" s="6">
-        <f>LOOKUP(M3,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="N3" s="6">
-        <v>2</v>
-      </c>
-      <c r="O3" s="6">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="78.75">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="6">
-        <f>LOOKUP(D4,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" s="6">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6">
-        <f>LOOKUP(I4,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>8</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" s="6">
-        <f>LOOKUP(K4,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4" s="6">
-        <f>LOOKUP(M4,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="N4" s="6">
-        <v>3</v>
-      </c>
-      <c r="O4" s="6">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="94.5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="6">
-        <f>LOOKUP(D5,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G5" s="6">
-        <v>5</v>
-      </c>
-      <c r="H5" s="6">
-        <f>LOOKUP(I5,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>9</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J5" s="6">
-        <f>LOOKUP(K5,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L5" s="6">
-        <f>LOOKUP(M5,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N5" s="6">
-        <v>4</v>
-      </c>
-      <c r="O5" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="94.5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="6">
-        <f>LOOKUP(D6,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="6">
-        <v>15</v>
-      </c>
-      <c r="H6" s="6">
-        <f>LOOKUP(I6,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>9</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J6" s="6">
-        <f>LOOKUP(K6,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L6" s="6">
-        <f>LOOKUP(M6,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N6" s="6">
-        <v>5</v>
-      </c>
-      <c r="O6" s="6">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="94.5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="6">
-        <f>LOOKUP(D7,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="6">
-        <v>25</v>
-      </c>
-      <c r="H7" s="6">
-        <f>LOOKUP(I7,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>2</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="J7" s="6">
-        <f>LOOKUP(K7,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L7" s="6">
-        <f>LOOKUP(M7,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N7" s="6">
-        <v>2</v>
-      </c>
-      <c r="O7" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="63">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="6">
-        <f>LOOKUP(D8,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>4</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G8" s="6">
-        <v>5</v>
-      </c>
-      <c r="H8" s="6">
-        <f>LOOKUP(I8,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>6</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="J8" s="6">
-        <f>LOOKUP(K8,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="6">
-        <f>LOOKUP(M8,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N8" s="6">
-        <v>3</v>
-      </c>
-      <c r="O8" s="6">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="78.75">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="6" t="e">
-        <f>LOOKUP(D9,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="6">
-        <v>5</v>
-      </c>
-      <c r="H9" s="6">
-        <f>LOOKUP(I9,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>5</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="J9" s="6">
-        <f>LOOKUP(K9,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L9" s="6">
-        <f>LOOKUP(M9,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="N9" s="6">
-        <v>5</v>
-      </c>
-      <c r="O9" s="6">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="63">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="6">
-        <f>LOOKUP(D10,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="6">
-        <v>10</v>
-      </c>
-      <c r="H10" s="6">
-        <f>LOOKUP(I10,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>7</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="J10" s="6">
-        <f>LOOKUP(K10,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L10" s="6">
-        <f>LOOKUP(M10,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N10" s="6">
-        <v>3</v>
-      </c>
-      <c r="O10" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="78.75">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="6">
-        <f>LOOKUP(D11,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="6">
-        <v>5</v>
-      </c>
-      <c r="H11" s="6">
-        <f>LOOKUP(I11,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J11" s="6">
-        <f>LOOKUP(K11,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L11" s="6">
-        <f>LOOKUP(M11,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N11" s="6">
-        <v>5</v>
-      </c>
-      <c r="O11" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="63">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="6" t="e">
-        <f>LOOKUP(D12,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="6">
-        <v>10</v>
-      </c>
-      <c r="H12" s="6">
-        <f>LOOKUP(I12,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J12" s="6">
-        <f>LOOKUP(K12,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L12" s="6">
-        <f>LOOKUP(M12,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N12" s="6">
-        <v>5</v>
-      </c>
-      <c r="O12" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="78.75">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="6" t="e">
-        <f>LOOKUP(D13,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" s="6">
-        <v>15</v>
-      </c>
-      <c r="H13" s="6">
-        <f>LOOKUP(I13,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J13" s="6">
-        <f>LOOKUP(K13,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L13" s="6">
-        <f>LOOKUP(M13,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N13" s="6">
-        <v>2</v>
-      </c>
-      <c r="O13" s="6">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="110.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="6">
-        <f>LOOKUP(D14,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>8</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G14" s="6">
-        <v>30</v>
-      </c>
-      <c r="H14" s="6">
-        <f>LOOKUP(I14,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>1</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="J14" s="6">
-        <f>LOOKUP(K14,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L14" s="6">
-        <f>LOOKUP(M14,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="N14" s="6">
-        <v>4</v>
-      </c>
-      <c r="O14" s="6">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="78.75">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="6">
-        <f>LOOKUP(D15,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G15" s="6">
-        <v>10</v>
-      </c>
-      <c r="H15" s="6">
-        <f>LOOKUP(I15,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J15" s="6">
-        <f>LOOKUP(K15,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L15" s="6">
-        <f>LOOKUP(M15,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="N15" s="6">
-        <v>2</v>
-      </c>
-      <c r="O15" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="47.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="6">
-        <f>LOOKUP(D16,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>8</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" s="6">
-        <v>15</v>
-      </c>
-      <c r="H16" s="6">
-        <f>LOOKUP(I16,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="J16" s="6">
-        <f>LOOKUP(K16,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L16" s="6">
-        <f>LOOKUP(M16,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="N16" s="6">
-        <v>3</v>
-      </c>
-      <c r="O16" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="78.75">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="6">
-        <f>LOOKUP(D17,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>8</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" s="6">
-        <v>25</v>
-      </c>
-      <c r="H17" s="6">
-        <f>LOOKUP(I17,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>2</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="J17" s="6">
-        <f>LOOKUP(K17,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L17" s="6">
-        <f>LOOKUP(M17,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N17" s="6">
-        <v>4</v>
-      </c>
-      <c r="O17" s="6">
-        <v>9</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="63">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="6" t="e">
-        <f>LOOKUP(D18,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G18" s="6">
-        <v>5</v>
-      </c>
-      <c r="H18" s="6">
-        <f>LOOKUP(I18,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J18" s="6">
-        <f>LOOKUP(K18,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L18" s="6">
-        <f>LOOKUP(M18,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2</v>
-      </c>
-      <c r="O18" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="63">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="6" t="e">
-        <f>LOOKUP(D19,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="6">
-        <v>5</v>
-      </c>
-      <c r="H19" s="6">
-        <f>LOOKUP(I19,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J19" s="6">
-        <f>LOOKUP(K19,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L19" s="6">
-        <f>LOOKUP(M19,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N19" s="6">
-        <v>2</v>
-      </c>
-      <c r="O19" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="110.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="6">
-        <f>LOOKUP(D20,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>8</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G20" s="6">
-        <v>30</v>
-      </c>
-      <c r="H20" s="6">
-        <f>LOOKUP(I20,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>8</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J20" s="6">
-        <f>LOOKUP(K20,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L20" s="6">
-        <f>LOOKUP(M20,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N20" s="6">
-        <v>4</v>
-      </c>
-      <c r="O20" s="6">
-        <v>7</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="78.75">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="6">
-        <f>LOOKUP(D21,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G21" s="6">
-        <v>15</v>
-      </c>
-      <c r="H21" s="6">
-        <f>LOOKUP(I21,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J21" s="6">
-        <f>LOOKUP(K21,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L21" s="6">
-        <f>LOOKUP(M21,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N21" s="6">
-        <v>3</v>
-      </c>
-      <c r="O21" s="6">
-        <v>15</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="94.5">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="6">
-        <f>LOOKUP(D22,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>4</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G22" s="6">
-        <v>5</v>
-      </c>
-      <c r="H22" s="6">
-        <f>LOOKUP(I22,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J22" s="6">
-        <f>LOOKUP(K22,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L22" s="6">
-        <f>LOOKUP(M22,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N22" s="6">
-        <v>4</v>
-      </c>
-      <c r="O22" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="63">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="6" t="e">
-        <f>LOOKUP(D23,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G23" s="6">
-        <v>5</v>
-      </c>
-      <c r="H23" s="6">
-        <f>LOOKUP(I23,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J23" s="6">
-        <f>LOOKUP(K23,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L23" s="6">
-        <f>LOOKUP(M23,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N23" s="6">
-        <v>5</v>
-      </c>
-      <c r="O23" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="78.75">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="6">
-        <f>LOOKUP(D24,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G24" s="6">
-        <v>25</v>
-      </c>
-      <c r="H24" s="6">
-        <f>LOOKUP(I24,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>13</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="J24" s="6">
-        <f>LOOKUP(K24,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L24" s="6">
-        <f>LOOKUP(M24,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N24" s="6">
-        <v>2</v>
-      </c>
-      <c r="O24" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="78.75">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="6" t="e">
-        <f>LOOKUP(D25,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G25" s="6">
-        <v>30</v>
-      </c>
-      <c r="H25" s="6">
-        <f>LOOKUP(I25,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J25" s="6">
-        <f>LOOKUP(K25,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L25" s="6">
-        <f>LOOKUP(M25,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N25" s="6">
-        <v>5</v>
-      </c>
-      <c r="O25" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="63">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="6">
-        <f>LOOKUP(D26,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G26" s="6">
-        <v>15</v>
-      </c>
-      <c r="H26" s="6">
-        <f>LOOKUP(I26,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J26" s="6">
-        <f>LOOKUP(K26,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L26" s="6">
-        <f>LOOKUP(M26,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="N26" s="6">
-        <v>4</v>
-      </c>
-      <c r="O26" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="78.75">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="6">
-        <f>LOOKUP(D27,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G27" s="6">
-        <v>25</v>
-      </c>
-      <c r="H27" s="6">
-        <f>LOOKUP(I27,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>10</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J27" s="6">
-        <f>LOOKUP(K27,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L27" s="6">
-        <f>LOOKUP(M27,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="N27" s="6">
-        <v>3</v>
-      </c>
-      <c r="O27" s="6">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="94.5">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="6">
-        <f>LOOKUP(D28,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>4</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" s="6">
-        <v>15</v>
-      </c>
-      <c r="H28" s="6">
-        <f>LOOKUP(I28,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>11</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="J28" s="6">
-        <f>LOOKUP(K28,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L28" s="6">
-        <f>LOOKUP(M28,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N28" s="6">
-        <v>2</v>
-      </c>
-      <c r="O28" s="6">
-        <v>16</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="94.5">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="6">
-        <f>LOOKUP(D29,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G29" s="6">
-        <v>20</v>
-      </c>
-      <c r="H29" s="6">
-        <f>LOOKUP(I29,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>9</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J29" s="6">
-        <f>LOOKUP(K29,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L29" s="6">
-        <f>LOOKUP(M29,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N29" s="6">
-        <v>3</v>
-      </c>
-      <c r="O29" s="6">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="78.75">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="6">
-        <f>LOOKUP(D30,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G30" s="6">
-        <v>5</v>
-      </c>
-      <c r="H30" s="6">
-        <f>LOOKUP(I30,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>9</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J30" s="6">
-        <f>LOOKUP(K30,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L30" s="6">
-        <f>LOOKUP(M30,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N30" s="6">
-        <v>4</v>
-      </c>
-      <c r="O30" s="6">
-        <v>6</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="63">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="6">
-        <f>LOOKUP(D31,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
-        <v>8</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G31" s="6">
-        <v>15</v>
-      </c>
-      <c r="H31" s="6">
-        <f>LOOKUP(I31,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
-        <v>3</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="J31" s="6">
-        <f>LOOKUP(K31,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L31" s="6">
-        <f>LOOKUP(M31,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N31" s="6">
-        <v>5</v>
-      </c>
-      <c r="O31" s="6">
-        <v>15</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="31.5">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="33" customHeight="1">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="31.5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B2:B4">
-    <sortCondition ref="B2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="31.5">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B2:B14">
-    <sortCondition ref="B2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="31.5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4036,7 +2075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
@@ -4605,7 +2644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -4653,4 +2692,3878 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="63">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="63">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="6">
+        <f>LOOKUP(D2,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="6">
+        <f>LOOKUP(G2,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="6">
+        <v>3</v>
+      </c>
+      <c r="J2" s="6">
+        <v>30</v>
+      </c>
+      <c r="K2" s="6">
+        <f>LOOKUP(L2,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>4</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="6">
+        <f>LOOKUP(N2,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6">
+        <v>6</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="63">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="6">
+        <f>LOOKUP(D3,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="6">
+        <f>LOOKUP(G3,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6">
+        <v>15</v>
+      </c>
+      <c r="K3" s="6">
+        <f>LOOKUP(L3,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>12</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" s="6">
+        <f>LOOKUP(N3,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6">
+        <v>7</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="78.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="6">
+        <f>LOOKUP(D4,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="6">
+        <f>LOOKUP(G4,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>3</v>
+      </c>
+      <c r="J4" s="6">
+        <v>10</v>
+      </c>
+      <c r="K4" s="6">
+        <f>LOOKUP(L4,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>8</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" s="6">
+        <f>LOOKUP(N4,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6">
+        <v>15</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="94.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="6">
+        <f>LOOKUP(D5,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="6">
+        <f>LOOKUP(G5,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5</v>
+      </c>
+      <c r="K5" s="6">
+        <f>LOOKUP(L5,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" s="6">
+        <f>LOOKUP(N5,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6">
+        <v>17</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="94.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="6">
+        <f>LOOKUP(D6,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="6">
+        <f>LOOKUP(G6,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6">
+        <v>15</v>
+      </c>
+      <c r="K6" s="6">
+        <f>LOOKUP(L6,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M6" s="6">
+        <f>LOOKUP(N6,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6">
+        <v>18</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="94.5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="6">
+        <f>LOOKUP(D7,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="6">
+        <f>LOOKUP(G7,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>25</v>
+      </c>
+      <c r="K7" s="6">
+        <f>LOOKUP(L7,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="M7" s="6">
+        <f>LOOKUP(N7,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6">
+        <v>5</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="63">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="6">
+        <f>LOOKUP(D8,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="6">
+        <f>LOOKUP(G8,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="6">
+        <v>3</v>
+      </c>
+      <c r="J8" s="6">
+        <v>5</v>
+      </c>
+      <c r="K8" s="6">
+        <f>LOOKUP(L8,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>6</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="M8" s="6">
+        <f>LOOKUP(N8,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6">
+        <v>19</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="78.75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="6" t="e">
+        <f>LOOKUP(D9,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="6">
+        <f>LOOKUP(G9,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>5</v>
+      </c>
+      <c r="J9" s="6">
+        <v>5</v>
+      </c>
+      <c r="K9" s="6">
+        <f>LOOKUP(L9,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>5</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="M9" s="6">
+        <f>LOOKUP(N9,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6">
+        <v>7</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="63">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="6">
+        <f>LOOKUP(D10,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="6">
+        <f>LOOKUP(G10,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I10" s="6">
+        <v>3</v>
+      </c>
+      <c r="J10" s="6">
+        <v>10</v>
+      </c>
+      <c r="K10" s="6">
+        <f>LOOKUP(L10,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>7</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="M10" s="6">
+        <f>LOOKUP(N10,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6">
+        <v>17</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="78.75">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="6">
+        <f>LOOKUP(D11,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="6">
+        <f>LOOKUP(G11,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I11" s="6">
+        <v>5</v>
+      </c>
+      <c r="J11" s="6">
+        <v>5</v>
+      </c>
+      <c r="K11" s="6">
+        <f>LOOKUP(L11,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" s="6">
+        <f>LOOKUP(N11,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6">
+        <v>5</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="63">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="6" t="e">
+        <f>LOOKUP(D12,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="6">
+        <f>LOOKUP(G12,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I12" s="6">
+        <v>5</v>
+      </c>
+      <c r="J12" s="6">
+        <v>10</v>
+      </c>
+      <c r="K12" s="6">
+        <f>LOOKUP(L12,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M12" s="6">
+        <f>LOOKUP(N12,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6">
+        <v>5</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="78.75">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="6" t="e">
+        <f>LOOKUP(D13,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="6">
+        <f>LOOKUP(G13,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2</v>
+      </c>
+      <c r="J13" s="6">
+        <v>15</v>
+      </c>
+      <c r="K13" s="6">
+        <f>LOOKUP(L13,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M13" s="6">
+        <f>LOOKUP(N13,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6">
+        <v>15</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="110.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="6">
+        <f>LOOKUP(D14,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="6">
+        <f>LOOKUP(G14,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="I14" s="6">
+        <v>4</v>
+      </c>
+      <c r="J14" s="6">
+        <v>30</v>
+      </c>
+      <c r="K14" s="6">
+        <f>LOOKUP(L14,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="M14" s="6">
+        <f>LOOKUP(N14,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6">
+        <v>9</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="78.75">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="6">
+        <f>LOOKUP(D15,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="6">
+        <f>LOOKUP(G15,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>2</v>
+      </c>
+      <c r="J15" s="6">
+        <v>10</v>
+      </c>
+      <c r="K15" s="6">
+        <f>LOOKUP(L15,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" s="6">
+        <f>LOOKUP(N15,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6">
+        <v>17</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="47.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="6">
+        <f>LOOKUP(D16,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="6">
+        <f>LOOKUP(G16,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="I16" s="6">
+        <v>3</v>
+      </c>
+      <c r="J16" s="6">
+        <v>15</v>
+      </c>
+      <c r="K16" s="6">
+        <f>LOOKUP(L16,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="M16" s="6">
+        <f>LOOKUP(N16,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6">
+        <v>8</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="78.75">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="6">
+        <f>LOOKUP(D17,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="6">
+        <f>LOOKUP(G17,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I17" s="6">
+        <v>4</v>
+      </c>
+      <c r="J17" s="6">
+        <v>25</v>
+      </c>
+      <c r="K17" s="6">
+        <f>LOOKUP(L17,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" s="6">
+        <f>LOOKUP(N17,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6">
+        <v>9</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="63">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="6" t="e">
+        <f>LOOKUP(D18,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="6">
+        <f>LOOKUP(G18,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I18" s="6">
+        <v>2</v>
+      </c>
+      <c r="J18" s="6">
+        <v>5</v>
+      </c>
+      <c r="K18" s="6">
+        <f>LOOKUP(L18,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" s="6">
+        <f>LOOKUP(N18,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6">
+        <v>17</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="63">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="6" t="e">
+        <f>LOOKUP(D19,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="6">
+        <f>LOOKUP(G19,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I19" s="6">
+        <v>2</v>
+      </c>
+      <c r="J19" s="6">
+        <v>5</v>
+      </c>
+      <c r="K19" s="6">
+        <f>LOOKUP(L19,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" s="6">
+        <f>LOOKUP(N19,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6">
+        <v>17</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="110.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="6">
+        <f>LOOKUP(D20,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="6">
+        <f>LOOKUP(G20,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I20" s="6">
+        <v>4</v>
+      </c>
+      <c r="J20" s="6">
+        <v>30</v>
+      </c>
+      <c r="K20" s="6">
+        <f>LOOKUP(L20,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>8</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" s="6">
+        <f>LOOKUP(N20,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6">
+        <v>7</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="78.75">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="6">
+        <f>LOOKUP(D21,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" s="6">
+        <f>LOOKUP(G21,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I21" s="6">
+        <v>3</v>
+      </c>
+      <c r="J21" s="6">
+        <v>15</v>
+      </c>
+      <c r="K21" s="6">
+        <f>LOOKUP(L21,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" s="6">
+        <f>LOOKUP(N21,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6">
+        <v>15</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="94.5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="6">
+        <f>LOOKUP(D22,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>4</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="6">
+        <f>LOOKUP(G22,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I22" s="6">
+        <v>4</v>
+      </c>
+      <c r="J22" s="6">
+        <v>5</v>
+      </c>
+      <c r="K22" s="6">
+        <f>LOOKUP(L22,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" s="6">
+        <f>LOOKUP(N22,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6">
+        <v>21</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="63">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="6" t="e">
+        <f>LOOKUP(D23,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="6">
+        <f>LOOKUP(G23,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I23" s="6">
+        <v>5</v>
+      </c>
+      <c r="J23" s="6">
+        <v>5</v>
+      </c>
+      <c r="K23" s="6">
+        <f>LOOKUP(L23,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" s="6">
+        <f>LOOKUP(N23,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6">
+        <v>4</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="78.75">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="6">
+        <f>LOOKUP(D24,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="6">
+        <f>LOOKUP(G24,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I24" s="6">
+        <v>2</v>
+      </c>
+      <c r="J24" s="6">
+        <v>25</v>
+      </c>
+      <c r="K24" s="6">
+        <f>LOOKUP(L24,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>13</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" s="6">
+        <f>LOOKUP(N24,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6">
+        <v>17</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="78.75">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="6" t="e">
+        <f>LOOKUP(D25,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="6">
+        <f>LOOKUP(G25,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I25" s="6">
+        <v>5</v>
+      </c>
+      <c r="J25" s="6">
+        <v>30</v>
+      </c>
+      <c r="K25" s="6">
+        <f>LOOKUP(L25,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" s="6">
+        <f>LOOKUP(N25,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6">
+        <v>3</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="63">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="6">
+        <f>LOOKUP(D26,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="6">
+        <f>LOOKUP(G26,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="6">
+        <v>4</v>
+      </c>
+      <c r="J26" s="6">
+        <v>15</v>
+      </c>
+      <c r="K26" s="6">
+        <f>LOOKUP(L26,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" s="6">
+        <f>LOOKUP(N26,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6">
+        <v>5</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="78.75">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="6">
+        <f>LOOKUP(D27,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="6">
+        <f>LOOKUP(G27,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>3</v>
+      </c>
+      <c r="J27" s="6">
+        <v>25</v>
+      </c>
+      <c r="K27" s="6">
+        <f>LOOKUP(L27,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" s="6">
+        <f>LOOKUP(N27,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6">
+        <v>13</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="94.5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="6">
+        <f>LOOKUP(D28,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>4</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="6">
+        <f>LOOKUP(G28,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I28" s="6">
+        <v>2</v>
+      </c>
+      <c r="J28" s="6">
+        <v>15</v>
+      </c>
+      <c r="K28" s="6">
+        <f>LOOKUP(L28,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>11</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="M28" s="6">
+        <f>LOOKUP(N28,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6">
+        <v>16</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="94.5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="6">
+        <f>LOOKUP(D29,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" s="6">
+        <f>LOOKUP(G29,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I29" s="6">
+        <v>3</v>
+      </c>
+      <c r="J29" s="6">
+        <v>20</v>
+      </c>
+      <c r="K29" s="6">
+        <f>LOOKUP(L29,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M29" s="6">
+        <f>LOOKUP(N29,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6">
+        <v>19</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="78.75">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="6">
+        <f>LOOKUP(D30,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="6">
+        <f>LOOKUP(G30,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I30" s="6">
+        <v>4</v>
+      </c>
+      <c r="J30" s="6">
+        <v>5</v>
+      </c>
+      <c r="K30" s="6">
+        <f>LOOKUP(L30,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>9</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M30" s="6">
+        <f>LOOKUP(N30,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6">
+        <v>6</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="63">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="6">
+        <f>LOOKUP(D31,ProductName!$B$2:$B$9,ProductName!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="6">
+        <f>LOOKUP(G31,ProductCategory!$B$2:$B$4,ProductCategory!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="I31" s="6">
+        <v>5</v>
+      </c>
+      <c r="J31" s="6">
+        <v>15</v>
+      </c>
+      <c r="K31" s="6">
+        <f>LOOKUP(L31,ProductManufacturer!$B$2:$B$14,ProductManufacturer!$A$2:$A$14)</f>
+        <v>3</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="M31" s="6">
+        <f>LOOKUP(N31,ProductSupplier!$B$2:$B$3,ProductSupplier!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6">
+        <v>15</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O37" sqref="K2:O37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>344288</v>
+      </c>
+      <c r="C2" s="11">
+        <f>LOOKUP(D2,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2">
+        <f>LOOKUP(F2,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>344288</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>27</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>614164</v>
+      </c>
+      <c r="C3" s="11">
+        <f>LOOKUP(D3,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3">
+        <f>LOOKUP(F3,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>614164</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>24</v>
+      </c>
+      <c r="O3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>394242</v>
+      </c>
+      <c r="C4" s="11">
+        <f>LOOKUP(D4,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4">
+        <f>LOOKUP(F4,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>394242</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>660540</v>
+      </c>
+      <c r="C5" s="11">
+        <f>LOOKUP(D5,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5">
+        <f>LOOKUP(F5,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>660540</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>22</v>
+      </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>125837</v>
+      </c>
+      <c r="C6" s="11">
+        <f>LOOKUP(D6,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6">
+        <f>LOOKUP(F6,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>125837</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>29</v>
+      </c>
+      <c r="O6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>125703</v>
+      </c>
+      <c r="C7" s="11">
+        <f>LOOKUP(D7,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7">
+        <f>LOOKUP(F7,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7">
+        <v>49</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>125703</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>15</v>
+      </c>
+      <c r="O7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>625283</v>
+      </c>
+      <c r="C8" s="11">
+        <f>LOOKUP(D8,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8">
+        <f>LOOKUP(F8,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8">
+        <v>46</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>625283</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>16</v>
+      </c>
+      <c r="O8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>614611</v>
+      </c>
+      <c r="C9" s="11">
+        <f>LOOKUP(D9,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9">
+        <f>LOOKUP(F9,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>614611</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>454311</v>
+      </c>
+      <c r="C10" s="11">
+        <f>LOOKUP(D10,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10">
+        <f>LOOKUP(F10,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>454311</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>13</v>
+      </c>
+      <c r="O10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>660007</v>
+      </c>
+      <c r="C11" s="11">
+        <f>LOOKUP(D11,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11">
+        <f>LOOKUP(F11,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>660007</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>14</v>
+      </c>
+      <c r="O11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>603036</v>
+      </c>
+      <c r="C12" s="11">
+        <f>LOOKUP(D12,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12">
+        <f>LOOKUP(F12,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>603036</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>450983</v>
+      </c>
+      <c r="C13" s="11">
+        <f>LOOKUP(D13,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13">
+        <f>LOOKUP(F13,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>450983</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+      <c r="O13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>394782</v>
+      </c>
+      <c r="C14" s="11">
+        <f>LOOKUP(D14,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14">
+        <f>LOOKUP(F14,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <v>394782</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>27</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>603002</v>
+      </c>
+      <c r="C15" s="11">
+        <f>LOOKUP(D15,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15">
+        <f>LOOKUP(F15,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G15">
+        <v>28</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>603002</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>450558</v>
+      </c>
+      <c r="C16" s="11">
+        <f>LOOKUP(D16,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16">
+        <f>LOOKUP(F16,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>450558</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>11</v>
+      </c>
+      <c r="O16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>394060</v>
+      </c>
+      <c r="C17" s="11">
+        <f>LOOKUP(D17,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17">
+        <f>LOOKUP(F17,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G17">
+        <v>43</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>394060</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>25</v>
+      </c>
+      <c r="O17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>410661</v>
+      </c>
+      <c r="C18" s="11">
+        <f>LOOKUP(D18,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18">
+        <f>LOOKUP(F18,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>410661</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>28</v>
+      </c>
+      <c r="O18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>625590</v>
+      </c>
+      <c r="C19" s="11">
+        <f>LOOKUP(D19,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19">
+        <f>LOOKUP(F19,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <v>625590</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>7</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>625683</v>
+      </c>
+      <c r="C20" s="11">
+        <f>LOOKUP(D20,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20">
+        <f>LOOKUP(F20,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>256</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20">
+        <v>625683</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>400562</v>
+      </c>
+      <c r="C21" s="11">
+        <f>LOOKUP(D21,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21">
+        <f>LOOKUP(F21,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21">
+        <v>32</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>400562</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>614510</v>
+      </c>
+      <c r="C22" s="11">
+        <f>LOOKUP(D22,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22">
+        <f>LOOKUP(F22,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22">
+        <v>47</v>
+      </c>
+      <c r="K22">
+        <v>21</v>
+      </c>
+      <c r="L22">
+        <v>614510</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>9</v>
+      </c>
+      <c r="O22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>410542</v>
+      </c>
+      <c r="C23" s="11">
+        <f>LOOKUP(D23,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23">
+        <f>LOOKUP(F23,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>241</v>
+      </c>
+      <c r="G23">
+        <v>46</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+      <c r="L23">
+        <v>410542</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>20</v>
+      </c>
+      <c r="O23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>620839</v>
+      </c>
+      <c r="C24" s="11">
+        <f>LOOKUP(D24,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24">
+        <f>LOOKUP(F24,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
+      <c r="L24">
+        <v>620839</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>26</v>
+      </c>
+      <c r="O24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>443890</v>
+      </c>
+      <c r="C25" s="11">
+        <f>LOOKUP(D25,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E25">
+        <f>LOOKUP(F25,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+      <c r="L25">
+        <v>443890</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>603379</v>
+      </c>
+      <c r="C26" s="11">
+        <f>LOOKUP(D26,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26">
+        <f>LOOKUP(F26,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+      <c r="L26">
+        <v>603379</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>23</v>
+      </c>
+      <c r="O26">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>603721</v>
+      </c>
+      <c r="C27" s="11">
+        <f>LOOKUP(D27,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27">
+        <f>LOOKUP(F27,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27">
+        <v>41</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+      <c r="L27">
+        <v>603721</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>410172</v>
+      </c>
+      <c r="C28" s="11">
+        <f>LOOKUP(D28,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28">
+        <f>LOOKUP(F28,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G28">
+        <v>13</v>
+      </c>
+      <c r="K28">
+        <v>27</v>
+      </c>
+      <c r="L28">
+        <v>410172</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>21</v>
+      </c>
+      <c r="O28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>420151</v>
+      </c>
+      <c r="C29" s="11">
+        <f>LOOKUP(D29,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E29">
+        <f>LOOKUP(F29,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29">
+        <v>32</v>
+      </c>
+      <c r="K29">
+        <v>28</v>
+      </c>
+      <c r="L29">
+        <v>420151</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>125061</v>
+      </c>
+      <c r="C30" s="11">
+        <f>LOOKUP(D30,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30">
+        <f>LOOKUP(F30,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>29</v>
+      </c>
+      <c r="L30">
+        <v>125061</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>17</v>
+      </c>
+      <c r="O30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>630370</v>
+      </c>
+      <c r="C31" s="11">
+        <f>LOOKUP(D31,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31">
+        <f>LOOKUP(F31,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31">
+        <v>24</v>
+      </c>
+      <c r="K31">
+        <v>30</v>
+      </c>
+      <c r="L31">
+        <v>630370</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>29</v>
+      </c>
+      <c r="O31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>614753</v>
+      </c>
+      <c r="C32" s="11">
+        <f>LOOKUP(D32,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32">
+        <f>LOOKUP(F32,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>248</v>
+      </c>
+      <c r="G32">
+        <v>35</v>
+      </c>
+      <c r="K32">
+        <v>31</v>
+      </c>
+      <c r="L32">
+        <v>614753</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>18</v>
+      </c>
+      <c r="O32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>426030</v>
+      </c>
+      <c r="C33" s="11">
+        <f>LOOKUP(D33,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33">
+        <f>LOOKUP(F33,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>32</v>
+      </c>
+      <c r="L33">
+        <v>426030</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>9</v>
+      </c>
+      <c r="O33">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>450375</v>
+      </c>
+      <c r="C34" s="11">
+        <f>LOOKUP(D34,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34">
+        <f>LOOKUP(F34,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34">
+        <v>44</v>
+      </c>
+      <c r="K34">
+        <v>33</v>
+      </c>
+      <c r="L34">
+        <v>450375</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>6</v>
+      </c>
+      <c r="O34">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <v>625560</v>
+      </c>
+      <c r="C35" s="11">
+        <f>LOOKUP(D35,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>223</v>
+      </c>
+      <c r="E35">
+        <f>LOOKUP(F35,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+      <c r="K35">
+        <v>34</v>
+      </c>
+      <c r="L35">
+        <v>625560</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>12</v>
+      </c>
+      <c r="O35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11">
+        <v>516092.68449197902</v>
+      </c>
+      <c r="C36" s="11">
+        <f>LOOKUP(D36,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36">
+        <f>LOOKUP(F36,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" s="12">
+        <v>28</v>
+      </c>
+      <c r="K36">
+        <v>35</v>
+      </c>
+      <c r="L36">
+        <v>516092</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>27</v>
+      </c>
+      <c r="O36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11">
+        <v>517722.76058059599</v>
+      </c>
+      <c r="C37" s="11">
+        <f>LOOKUP(D37,PickPointCity!$B$2,PickPointCity!$A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37">
+        <f>LOOKUP(F37,PickPointStreet!$B$2:$B$30,PickPointStreet!$A$2:$A$30)</f>
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
+        <v>257</v>
+      </c>
+      <c r="G37" s="12">
+        <v>28</v>
+      </c>
+      <c r="K37">
+        <v>36</v>
+      </c>
+      <c r="L37">
+        <v>517722</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>24</v>
+      </c>
+      <c r="O37">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B30">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.5">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="33" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B4">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.5">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B14">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>